--- a/spnegoClient/src/main/resources/testJwtToken.xlsx
+++ b/spnegoClient/src/main/resources/testJwtToken.xlsx
@@ -25,13 +25,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -415,7 +421,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
